--- a/results/gurobi_cplex_comparison/seed_40_k_35.xlsx
+++ b/results/gurobi_cplex_comparison/seed_40_k_35.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.022</v>
+        <v>0.96</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.025</v>
+        <v>1.371</v>
       </c>
       <c r="F3">
-        <v>0.07099999999999999</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.026</v>
+        <v>1.87</v>
       </c>
       <c r="F4">
-        <v>0.047</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.045</v>
+        <v>2.444</v>
       </c>
       <c r="F5">
-        <v>0.074</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.026</v>
+        <v>3.074</v>
       </c>
       <c r="F6">
-        <v>0.077</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.043</v>
+        <v>3.829</v>
       </c>
       <c r="F7">
-        <v>0.078</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.055</v>
+        <v>4.64</v>
       </c>
       <c r="F8">
-        <v>0.109</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.053</v>
+        <v>5.495</v>
       </c>
       <c r="F9">
-        <v>0.115</v>
+        <v>1.223</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.046</v>
+        <v>6.465</v>
       </c>
       <c r="F10">
-        <v>0.08500000000000001</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.062</v>
+        <v>7.52</v>
       </c>
       <c r="F11">
-        <v>9.090999999999999</v>
+        <v>116.059</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.132</v>
+        <v>8.711</v>
       </c>
       <c r="F12">
-        <v>5.028</v>
+        <v>78.857</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.07199999999999999</v>
+        <v>9.859</v>
       </c>
       <c r="F13">
-        <v>4.352</v>
+        <v>52.052</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.172</v>
+        <v>11.2</v>
       </c>
       <c r="F14">
-        <v>3.775</v>
+        <v>107.351</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.113</v>
+        <v>12.455</v>
       </c>
       <c r="F15">
-        <v>5.728</v>
+        <v>93.595</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.221</v>
+        <v>13.957</v>
       </c>
       <c r="F16">
-        <v>3.838</v>
+        <v>103.566</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.099</v>
+        <v>15.398</v>
       </c>
       <c r="F17">
-        <v>7.631</v>
+        <v>108.184</v>
       </c>
     </row>
   </sheetData>
